--- a/Code/Results/Cases/Case_0_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_236/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.54458376345889</v>
+        <v>9.900673960402175</v>
       </c>
       <c r="D2">
-        <v>4.353431239895653</v>
+        <v>6.106787525169712</v>
       </c>
       <c r="E2">
-        <v>19.62014133786608</v>
+        <v>13.08979260038256</v>
       </c>
       <c r="F2">
-        <v>33.00118988299259</v>
+        <v>32.17575759233443</v>
       </c>
       <c r="G2">
-        <v>51.46172508496482</v>
+        <v>42.77752766999639</v>
       </c>
       <c r="H2">
-        <v>12.62706330582597</v>
+        <v>17.46021584234498</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.572347870282</v>
+        <v>9.524541386855931</v>
       </c>
       <c r="M2">
-        <v>102.7231549945708</v>
+        <v>60.06208870055031</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.466339965170051</v>
+        <v>10.08891691546194</v>
       </c>
       <c r="D3">
-        <v>3.486993823001464</v>
+        <v>6.26695021523622</v>
       </c>
       <c r="E3">
-        <v>17.68419969725991</v>
+        <v>12.83695780203309</v>
       </c>
       <c r="F3">
-        <v>28.64601946643185</v>
+        <v>32.58558489583338</v>
       </c>
       <c r="G3">
-        <v>44.1736928265876</v>
+        <v>43.40942341121801</v>
       </c>
       <c r="H3">
-        <v>10.85103277251947</v>
+        <v>17.72293429343335</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.28166459195192</v>
+        <v>9.324046764481693</v>
       </c>
       <c r="M3">
-        <v>94.0787807145735</v>
+        <v>56.78537599877266</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.914537767534051</v>
+        <v>10.21040316096158</v>
       </c>
       <c r="D4">
-        <v>2.999487362534677</v>
+        <v>6.368535370690585</v>
       </c>
       <c r="E4">
-        <v>16.54631230096156</v>
+        <v>12.68542481973064</v>
       </c>
       <c r="F4">
-        <v>26.23628877036579</v>
+        <v>32.8683713238417</v>
       </c>
       <c r="G4">
-        <v>40.1705950594092</v>
+        <v>43.8532623557407</v>
       </c>
       <c r="H4">
-        <v>9.885647571621552</v>
+        <v>17.89530141460441</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.50717509315038</v>
+        <v>9.201654695173843</v>
       </c>
       <c r="M4">
-        <v>88.86608205721073</v>
+        <v>54.6705423302256</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.713167726312909</v>
+        <v>10.26137685743486</v>
       </c>
       <c r="D5">
-        <v>2.808388570416973</v>
+        <v>6.410759512991618</v>
       </c>
       <c r="E5">
-        <v>16.08886897604239</v>
+        <v>12.62467581225446</v>
       </c>
       <c r="F5">
-        <v>25.30626382822284</v>
+        <v>32.99117785101921</v>
       </c>
       <c r="G5">
-        <v>38.63358376825279</v>
+        <v>44.04758060477004</v>
       </c>
       <c r="H5">
-        <v>9.517762848398453</v>
+        <v>17.96826817603767</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.19246090204314</v>
+        <v>9.152017650203224</v>
       </c>
       <c r="M5">
-        <v>86.73294208801354</v>
+        <v>53.78326798305265</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.681066417349943</v>
+        <v>10.26992913827406</v>
       </c>
       <c r="D6">
-        <v>2.777034499536637</v>
+        <v>6.417821099188971</v>
       </c>
       <c r="E6">
-        <v>16.01314625953135</v>
+        <v>12.61465101631297</v>
       </c>
       <c r="F6">
-        <v>25.15467639223652</v>
+        <v>33.0120193641583</v>
       </c>
       <c r="G6">
-        <v>38.38357262474949</v>
+        <v>44.08064239236445</v>
       </c>
       <c r="H6">
-        <v>9.458099178078124</v>
+        <v>17.98054735314724</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.14017730628589</v>
+        <v>9.143791646787019</v>
       </c>
       <c r="M6">
-        <v>86.37777232307683</v>
+        <v>53.63441320469072</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.911730852086181</v>
+        <v>10.21108469146095</v>
       </c>
       <c r="D7">
-        <v>2.996883235678495</v>
+        <v>6.369101455322975</v>
       </c>
       <c r="E7">
-        <v>16.54012443459028</v>
+        <v>12.68460138931299</v>
       </c>
       <c r="F7">
-        <v>26.22354983379856</v>
+        <v>32.86999723242284</v>
       </c>
       <c r="G7">
-        <v>40.14950787743942</v>
+        <v>43.85582930982749</v>
       </c>
       <c r="H7">
-        <v>9.880588468625621</v>
+        <v>17.8962745027927</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.50293086442501</v>
+        <v>9.200984226152123</v>
       </c>
       <c r="M7">
-        <v>88.83736986580821</v>
+        <v>54.65867870502068</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.146478458882839</v>
+        <v>9.964343339001132</v>
       </c>
       <c r="D8">
-        <v>4.042697292183623</v>
+        <v>6.161345250947249</v>
       </c>
       <c r="E8">
-        <v>18.93713218430371</v>
+        <v>13.00188707329523</v>
       </c>
       <c r="F8">
-        <v>31.43320420252926</v>
+        <v>32.31043888825692</v>
       </c>
       <c r="G8">
-        <v>48.83148021763425</v>
+        <v>42.98344954979327</v>
       </c>
       <c r="H8">
-        <v>11.98396370474845</v>
+        <v>17.54847232866545</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.12083371696185</v>
+        <v>9.455298144796219</v>
       </c>
       <c r="M8">
-        <v>99.69651900596659</v>
+        <v>58.95385739808107</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.92745977033098</v>
+        <v>9.528256118142124</v>
       </c>
       <c r="D9">
-        <v>6.795136181205601</v>
+        <v>5.779136271469241</v>
       </c>
       <c r="E9">
-        <v>24.67328639113302</v>
+        <v>13.65048903167136</v>
       </c>
       <c r="F9">
-        <v>45.26362267802735</v>
+        <v>31.47258834083744</v>
       </c>
       <c r="G9">
-        <v>72.19949969467683</v>
+        <v>41.74339042738088</v>
       </c>
       <c r="H9">
-        <v>17.74401213960168</v>
+        <v>16.95680567027191</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.7865625975622</v>
+        <v>9.957153005663578</v>
       </c>
       <c r="M9">
-        <v>123.4916625792059</v>
+        <v>66.54671658721102</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.92745977033098</v>
+        <v>9.2384935812825</v>
       </c>
       <c r="D10">
-        <v>6.795136181205601</v>
+        <v>5.512895966992443</v>
       </c>
       <c r="E10">
-        <v>24.67328639113302</v>
+        <v>14.1391946321805</v>
       </c>
       <c r="F10">
-        <v>45.26362267802735</v>
+        <v>31.0325902699491</v>
       </c>
       <c r="G10">
-        <v>72.19949969467683</v>
+        <v>41.15792422756581</v>
       </c>
       <c r="H10">
-        <v>17.74401213960168</v>
+        <v>16.58115358691739</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>17.7865625975622</v>
+        <v>10.3246284311248</v>
       </c>
       <c r="M10">
-        <v>123.4916625792059</v>
+        <v>71.60707953891347</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.92745977033098</v>
+        <v>9.113734966914166</v>
       </c>
       <c r="D11">
-        <v>6.795136181205601</v>
+        <v>5.394757676990878</v>
       </c>
       <c r="E11">
-        <v>24.67328639113302</v>
+        <v>14.36338855677676</v>
       </c>
       <c r="F11">
-        <v>45.26362267802735</v>
+        <v>30.87443711549043</v>
       </c>
       <c r="G11">
-        <v>72.19949969467683</v>
+        <v>40.97074616291753</v>
       </c>
       <c r="H11">
-        <v>17.74401213960168</v>
+        <v>16.42404279737925</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.7865625975622</v>
+        <v>10.49093293735867</v>
       </c>
       <c r="M11">
-        <v>123.4916625792059</v>
+        <v>73.79541396987965</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.92745977033098</v>
+        <v>9.067548095141877</v>
       </c>
       <c r="D12">
-        <v>6.795136181205601</v>
+        <v>5.350434306537792</v>
       </c>
       <c r="E12">
-        <v>24.67328639113302</v>
+        <v>14.44849541339263</v>
       </c>
       <c r="F12">
-        <v>45.26362267802735</v>
+        <v>30.82091682294665</v>
       </c>
       <c r="G12">
-        <v>72.19949969467683</v>
+        <v>40.91194346910247</v>
       </c>
       <c r="H12">
-        <v>17.74401213960168</v>
+        <v>16.36661824782135</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.7865625975622</v>
+        <v>10.55373904629919</v>
       </c>
       <c r="M12">
-        <v>123.4916625792059</v>
+        <v>74.60769295775361</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.92745977033098</v>
+        <v>9.077447544928189</v>
       </c>
       <c r="D13">
-        <v>6.795136181205601</v>
+        <v>5.359962011471662</v>
       </c>
       <c r="E13">
-        <v>24.67328639113302</v>
+        <v>14.43015772894482</v>
       </c>
       <c r="F13">
-        <v>45.26362267802735</v>
+        <v>30.83215485033414</v>
       </c>
       <c r="G13">
-        <v>72.19949969467683</v>
+        <v>40.92405958289878</v>
       </c>
       <c r="H13">
-        <v>17.74401213960168</v>
+        <v>16.37889210168809</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.7865625975622</v>
+        <v>10.54022086455803</v>
       </c>
       <c r="M13">
-        <v>123.4916625792059</v>
+        <v>74.43348376499792</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.92745977033098</v>
+        <v>9.109913710247794</v>
       </c>
       <c r="D14">
-        <v>6.795136181205601</v>
+        <v>5.391102976491348</v>
       </c>
       <c r="E14">
-        <v>24.67328639113302</v>
+        <v>14.37038648197145</v>
       </c>
       <c r="F14">
-        <v>45.26362267802735</v>
+        <v>30.86990443305824</v>
       </c>
       <c r="G14">
-        <v>72.19949969467683</v>
+        <v>40.96566243593838</v>
       </c>
       <c r="H14">
-        <v>17.74401213960168</v>
+        <v>16.41927642714008</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.7865625975622</v>
+        <v>10.49610368463369</v>
       </c>
       <c r="M14">
-        <v>123.4916625792059</v>
+        <v>73.86256940545707</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.92745977033098</v>
+        <v>9.129939106743587</v>
       </c>
       <c r="D15">
-        <v>6.795136181205601</v>
+        <v>5.410231053249563</v>
       </c>
       <c r="E15">
-        <v>24.67328639113302</v>
+        <v>14.33380042548198</v>
       </c>
       <c r="F15">
-        <v>45.26362267802735</v>
+        <v>30.8938663706561</v>
       </c>
       <c r="G15">
-        <v>72.19949969467683</v>
+        <v>40.9927386885584</v>
       </c>
       <c r="H15">
-        <v>17.74401213960168</v>
+        <v>16.44428531329789</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.7865625975622</v>
+        <v>10.46905723531486</v>
       </c>
       <c r="M15">
-        <v>123.4916625792059</v>
+        <v>73.51073178680443</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.92745977033098</v>
+        <v>9.246792278891421</v>
       </c>
       <c r="D16">
-        <v>6.795136181205601</v>
+        <v>5.520675205389236</v>
       </c>
       <c r="E16">
-        <v>24.67328639113302</v>
+        <v>14.12457554848846</v>
       </c>
       <c r="F16">
-        <v>45.26362267802735</v>
+        <v>31.04379919870747</v>
       </c>
       <c r="G16">
-        <v>72.19949969467683</v>
+        <v>41.17180919531785</v>
       </c>
       <c r="H16">
-        <v>17.74401213960168</v>
+        <v>16.59170579539568</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>17.7865625975622</v>
+        <v>10.31373868239429</v>
       </c>
       <c r="M16">
-        <v>123.4916625792059</v>
+        <v>71.46177432329418</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.92745977033098</v>
+        <v>9.320313061355739</v>
       </c>
       <c r="D17">
-        <v>6.795136181205601</v>
+        <v>5.589180901181531</v>
       </c>
       <c r="E17">
-        <v>24.67328639113302</v>
+        <v>13.99665951557341</v>
       </c>
       <c r="F17">
-        <v>45.26362267802735</v>
+        <v>31.14676905638782</v>
       </c>
       <c r="G17">
-        <v>72.19949969467683</v>
+        <v>41.30243382958592</v>
       </c>
       <c r="H17">
-        <v>17.74401213960168</v>
+        <v>16.68573286752104</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>17.7865625975622</v>
+        <v>10.21820109424296</v>
       </c>
       <c r="M17">
-        <v>123.4916625792059</v>
+        <v>70.17564559672547</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.92745977033098</v>
+        <v>9.363261553467156</v>
       </c>
       <c r="D18">
-        <v>6.795136181205601</v>
+        <v>5.628864587077145</v>
       </c>
       <c r="E18">
-        <v>24.67328639113302</v>
+        <v>13.9232658476092</v>
       </c>
       <c r="F18">
-        <v>45.26362267802735</v>
+        <v>31.20992825324403</v>
       </c>
       <c r="G18">
-        <v>72.19949969467683</v>
+        <v>41.38497464042958</v>
       </c>
       <c r="H18">
-        <v>17.74401213960168</v>
+        <v>16.74110560855052</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>17.7865625975622</v>
+        <v>10.16317176173844</v>
       </c>
       <c r="M18">
-        <v>123.4916625792059</v>
+        <v>69.42520135200165</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.92745977033098</v>
+        <v>9.3779155690656</v>
       </c>
       <c r="D19">
-        <v>6.795136181205601</v>
+        <v>5.642349509546719</v>
       </c>
       <c r="E19">
-        <v>24.67328639113302</v>
+        <v>13.89844889770033</v>
       </c>
       <c r="F19">
-        <v>45.26362267802735</v>
+        <v>31.23197852790991</v>
       </c>
       <c r="G19">
-        <v>72.19949969467683</v>
+        <v>41.41417269919467</v>
       </c>
       <c r="H19">
-        <v>17.74401213960168</v>
+        <v>16.76007297059039</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.7865625975622</v>
+        <v>10.14452773377745</v>
       </c>
       <c r="M19">
-        <v>123.4916625792059</v>
+        <v>69.16927890597209</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.92745977033098</v>
+        <v>9.312417923521449</v>
       </c>
       <c r="D20">
-        <v>6.795136181205601</v>
+        <v>5.581859373920532</v>
       </c>
       <c r="E20">
-        <v>24.67328639113302</v>
+        <v>14.0102581953262</v>
       </c>
       <c r="F20">
-        <v>45.26362267802735</v>
+        <v>31.1353982508931</v>
       </c>
       <c r="G20">
-        <v>72.19949969467683</v>
+        <v>41.28775674373316</v>
       </c>
       <c r="H20">
-        <v>17.74401213960168</v>
+        <v>16.67558930319491</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>17.7865625975622</v>
+        <v>10.22837971774357</v>
       </c>
       <c r="M20">
-        <v>123.4916625792059</v>
+        <v>70.31366381096564</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.92745977033098</v>
+        <v>9.100348573529363</v>
       </c>
       <c r="D21">
-        <v>6.795136181205601</v>
+        <v>5.381945032236829</v>
       </c>
       <c r="E21">
-        <v>24.67328639113302</v>
+        <v>14.38793752138181</v>
       </c>
       <c r="F21">
-        <v>45.26362267802735</v>
+        <v>30.8586409799218</v>
       </c>
       <c r="G21">
-        <v>72.19949969467683</v>
+        <v>40.9531094027022</v>
       </c>
       <c r="H21">
-        <v>17.74401213960168</v>
+        <v>16.40735765156258</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.7865625975622</v>
+        <v>10.50906692282947</v>
       </c>
       <c r="M21">
-        <v>123.4916625792059</v>
+        <v>74.03070599021051</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.92745977033098</v>
+        <v>8.967930969834697</v>
       </c>
       <c r="D22">
-        <v>6.795136181205601</v>
+        <v>5.253689561480914</v>
       </c>
       <c r="E22">
-        <v>24.67328639113302</v>
+        <v>14.6359691082283</v>
       </c>
       <c r="F22">
-        <v>45.26362267802735</v>
+        <v>30.71504107205583</v>
       </c>
       <c r="G22">
-        <v>72.19949969467683</v>
+        <v>40.80510765564448</v>
       </c>
       <c r="H22">
-        <v>17.74401213960168</v>
+        <v>16.24416398745831</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.7865625975622</v>
+        <v>10.69150423279482</v>
       </c>
       <c r="M22">
-        <v>123.4916625792059</v>
+        <v>76.36444365252592</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.92745977033098</v>
+        <v>9.038023660032017</v>
       </c>
       <c r="D23">
-        <v>6.795136181205601</v>
+        <v>5.321927398400505</v>
       </c>
       <c r="E23">
-        <v>24.67328639113302</v>
+        <v>14.50349933916902</v>
       </c>
       <c r="F23">
-        <v>45.26362267802735</v>
+        <v>30.78816287138499</v>
       </c>
       <c r="G23">
-        <v>72.19949969467683</v>
+        <v>40.87740277104246</v>
       </c>
       <c r="H23">
-        <v>17.74401213960168</v>
+        <v>16.33012411935729</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.7865625975622</v>
+        <v>10.59424030345171</v>
       </c>
       <c r="M23">
-        <v>123.4916625792059</v>
+        <v>75.12763537380624</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.92745977033098</v>
+        <v>9.315985199088782</v>
       </c>
       <c r="D24">
-        <v>6.795136181205601</v>
+        <v>5.585168504429992</v>
       </c>
       <c r="E24">
-        <v>24.67328639113302</v>
+        <v>14.00410976978474</v>
       </c>
       <c r="F24">
-        <v>45.26362267802735</v>
+        <v>31.14052668100163</v>
       </c>
       <c r="G24">
-        <v>72.19949969467683</v>
+        <v>41.29436912395298</v>
       </c>
       <c r="H24">
-        <v>17.74401213960168</v>
+        <v>16.68017111833773</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>17.7865625975622</v>
+        <v>10.22377828091217</v>
       </c>
       <c r="M24">
-        <v>123.4916625792059</v>
+        <v>70.25130013315504</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.92745977033098</v>
+        <v>9.640973731688449</v>
       </c>
       <c r="D25">
-        <v>6.795136181205601</v>
+        <v>5.87991615081001</v>
       </c>
       <c r="E25">
-        <v>24.67328639113302</v>
+        <v>13.47261139082614</v>
       </c>
       <c r="F25">
-        <v>45.26362267802735</v>
+        <v>31.66970891368799</v>
       </c>
       <c r="G25">
-        <v>72.19949969467683</v>
+        <v>42.02452624984006</v>
       </c>
       <c r="H25">
-        <v>17.74401213960168</v>
+        <v>17.10680378388997</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.7865625975622</v>
+        <v>9.821388876319199</v>
       </c>
       <c r="M25">
-        <v>123.4916625792059</v>
+        <v>64.5830220080871</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_236/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.900673960402175</v>
+        <v>6.544583763458971</v>
       </c>
       <c r="D2">
-        <v>6.106787525169712</v>
+        <v>4.353431239895722</v>
       </c>
       <c r="E2">
-        <v>13.08979260038256</v>
+        <v>19.62014133786611</v>
       </c>
       <c r="F2">
-        <v>32.17575759233443</v>
+        <v>33.00118988299314</v>
       </c>
       <c r="G2">
-        <v>42.77752766999639</v>
+        <v>51.46172508496573</v>
       </c>
       <c r="H2">
-        <v>17.46021584234498</v>
+        <v>12.6270633058262</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.524541386855931</v>
+        <v>14.572347870282</v>
       </c>
       <c r="M2">
-        <v>60.06208870055031</v>
+        <v>102.723154994571</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.08891691546194</v>
+        <v>5.466339965169989</v>
       </c>
       <c r="D3">
-        <v>6.26695021523622</v>
+        <v>3.48699382300113</v>
       </c>
       <c r="E3">
-        <v>12.83695780203309</v>
+        <v>17.68419969725987</v>
       </c>
       <c r="F3">
-        <v>32.58558489583338</v>
+        <v>28.64601946643169</v>
       </c>
       <c r="G3">
-        <v>43.40942341121801</v>
+        <v>44.17369282658727</v>
       </c>
       <c r="H3">
-        <v>17.72293429343335</v>
+        <v>10.8510327725194</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.324046764481693</v>
+        <v>13.28166459195191</v>
       </c>
       <c r="M3">
-        <v>56.78537599877266</v>
+        <v>94.0787807145734</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.21040316096158</v>
+        <v>4.914537767533988</v>
       </c>
       <c r="D4">
-        <v>6.368535370690585</v>
+        <v>2.999487362534739</v>
       </c>
       <c r="E4">
-        <v>12.68542481973064</v>
+        <v>16.54631230096154</v>
       </c>
       <c r="F4">
-        <v>32.8683713238417</v>
+        <v>26.2362887703658</v>
       </c>
       <c r="G4">
-        <v>43.8532623557407</v>
+        <v>40.17059505940932</v>
       </c>
       <c r="H4">
-        <v>17.89530141460441</v>
+        <v>9.885647571621565</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.201654695173843</v>
+        <v>12.50717509315036</v>
       </c>
       <c r="M4">
-        <v>54.6705423302256</v>
+        <v>88.86608205721062</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.26137685743486</v>
+        <v>4.713167726313062</v>
       </c>
       <c r="D5">
-        <v>6.410759512991618</v>
+        <v>2.808388570416847</v>
       </c>
       <c r="E5">
-        <v>12.62467581225446</v>
+        <v>16.08886897604248</v>
       </c>
       <c r="F5">
-        <v>32.99117785101921</v>
+        <v>25.30626382822296</v>
       </c>
       <c r="G5">
-        <v>44.04758060477004</v>
+        <v>38.63358376825288</v>
       </c>
       <c r="H5">
-        <v>17.96826817603767</v>
+        <v>9.517762848398464</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.152017650203224</v>
+        <v>12.19246090204313</v>
       </c>
       <c r="M5">
-        <v>53.78326798305265</v>
+        <v>86.73294208801374</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.26992913827406</v>
+        <v>4.681066417349824</v>
       </c>
       <c r="D6">
-        <v>6.417821099188971</v>
+        <v>2.777034499536768</v>
       </c>
       <c r="E6">
-        <v>12.61465101631297</v>
+        <v>16.01314625953129</v>
       </c>
       <c r="F6">
-        <v>33.0120193641583</v>
+        <v>25.15467639223641</v>
       </c>
       <c r="G6">
-        <v>44.08064239236445</v>
+        <v>38.38357262474937</v>
       </c>
       <c r="H6">
-        <v>17.98054735314724</v>
+        <v>9.458099178078056</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.143791646787019</v>
+        <v>12.14017730628589</v>
       </c>
       <c r="M6">
-        <v>53.63441320469072</v>
+        <v>86.37777232307673</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.21108469146095</v>
+        <v>4.911730852086065</v>
       </c>
       <c r="D7">
-        <v>6.369101455322975</v>
+        <v>2.996883235678359</v>
       </c>
       <c r="E7">
-        <v>12.68460138931299</v>
+        <v>16.54012443459027</v>
       </c>
       <c r="F7">
-        <v>32.86999723242284</v>
+        <v>26.22354983379871</v>
       </c>
       <c r="G7">
-        <v>43.85582930982749</v>
+        <v>40.14950787743955</v>
       </c>
       <c r="H7">
-        <v>17.8962745027927</v>
+        <v>9.880588468625669</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.200984226152123</v>
+        <v>12.50293086442502</v>
       </c>
       <c r="M7">
-        <v>54.65867870502068</v>
+        <v>88.83736986580821</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.964343339001132</v>
+        <v>6.146478458882859</v>
       </c>
       <c r="D8">
-        <v>6.161345250947249</v>
+        <v>4.042697292183554</v>
       </c>
       <c r="E8">
-        <v>13.00188707329523</v>
+        <v>18.93713218430378</v>
       </c>
       <c r="F8">
-        <v>32.31043888825692</v>
+        <v>31.43320420252904</v>
       </c>
       <c r="G8">
-        <v>42.98344954979327</v>
+        <v>48.83148021763379</v>
       </c>
       <c r="H8">
-        <v>17.54847232866545</v>
+        <v>11.98396370474835</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.455298144796219</v>
+        <v>14.12083371696191</v>
       </c>
       <c r="M8">
-        <v>58.95385739808107</v>
+        <v>99.69651900596665</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.528256118142124</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D9">
-        <v>5.779136271469241</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E9">
-        <v>13.65048903167136</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F9">
-        <v>31.47258834083744</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G9">
-        <v>41.74339042738088</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H9">
-        <v>16.95680567027191</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.957153005663578</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M9">
-        <v>66.54671658721102</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.2384935812825</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D10">
-        <v>5.512895966992443</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E10">
-        <v>14.1391946321805</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F10">
-        <v>31.0325902699491</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G10">
-        <v>41.15792422756581</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H10">
-        <v>16.58115358691739</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.3246284311248</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M10">
-        <v>71.60707953891347</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.113734966914166</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D11">
-        <v>5.394757676990878</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E11">
-        <v>14.36338855677676</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F11">
-        <v>30.87443711549043</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G11">
-        <v>40.97074616291753</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H11">
-        <v>16.42404279737925</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.49093293735867</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M11">
-        <v>73.79541396987965</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.067548095141877</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D12">
-        <v>5.350434306537792</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E12">
-        <v>14.44849541339263</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F12">
-        <v>30.82091682294665</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G12">
-        <v>40.91194346910247</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H12">
-        <v>16.36661824782135</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.55373904629919</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M12">
-        <v>74.60769295775361</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.077447544928189</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D13">
-        <v>5.359962011471662</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E13">
-        <v>14.43015772894482</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F13">
-        <v>30.83215485033414</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G13">
-        <v>40.92405958289878</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H13">
-        <v>16.37889210168809</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.54022086455803</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M13">
-        <v>74.43348376499792</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.109913710247794</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D14">
-        <v>5.391102976491348</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E14">
-        <v>14.37038648197145</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F14">
-        <v>30.86990443305824</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G14">
-        <v>40.96566243593838</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H14">
-        <v>16.41927642714008</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.49610368463369</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M14">
-        <v>73.86256940545707</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.129939106743587</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D15">
-        <v>5.410231053249563</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E15">
-        <v>14.33380042548198</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F15">
-        <v>30.8938663706561</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G15">
-        <v>40.9927386885584</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H15">
-        <v>16.44428531329789</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.46905723531486</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M15">
-        <v>73.51073178680443</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.246792278891421</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D16">
-        <v>5.520675205389236</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E16">
-        <v>14.12457554848846</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F16">
-        <v>31.04379919870747</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G16">
-        <v>41.17180919531785</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H16">
-        <v>16.59170579539568</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.31373868239429</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M16">
-        <v>71.46177432329418</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.320313061355739</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D17">
-        <v>5.589180901181531</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E17">
-        <v>13.99665951557341</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F17">
-        <v>31.14676905638782</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G17">
-        <v>41.30243382958592</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H17">
-        <v>16.68573286752104</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.21820109424296</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M17">
-        <v>70.17564559672547</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.363261553467156</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D18">
-        <v>5.628864587077145</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E18">
-        <v>13.9232658476092</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F18">
-        <v>31.20992825324403</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G18">
-        <v>41.38497464042958</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H18">
-        <v>16.74110560855052</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.16317176173844</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M18">
-        <v>69.42520135200165</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.3779155690656</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D19">
-        <v>5.642349509546719</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E19">
-        <v>13.89844889770033</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F19">
-        <v>31.23197852790991</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G19">
-        <v>41.41417269919467</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H19">
-        <v>16.76007297059039</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.14452773377745</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M19">
-        <v>69.16927890597209</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.312417923521449</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D20">
-        <v>5.581859373920532</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E20">
-        <v>14.0102581953262</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F20">
-        <v>31.1353982508931</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G20">
-        <v>41.28775674373316</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H20">
-        <v>16.67558930319491</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.22837971774357</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M20">
-        <v>70.31366381096564</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.100348573529363</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D21">
-        <v>5.381945032236829</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E21">
-        <v>14.38793752138181</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F21">
-        <v>30.8586409799218</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G21">
-        <v>40.9531094027022</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H21">
-        <v>16.40735765156258</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.50906692282947</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M21">
-        <v>74.03070599021051</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.967930969834697</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D22">
-        <v>5.253689561480914</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E22">
-        <v>14.6359691082283</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F22">
-        <v>30.71504107205583</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G22">
-        <v>40.80510765564448</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H22">
-        <v>16.24416398745831</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.69150423279482</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M22">
-        <v>76.36444365252592</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.038023660032017</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D23">
-        <v>5.321927398400505</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E23">
-        <v>14.50349933916902</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F23">
-        <v>30.78816287138499</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G23">
-        <v>40.87740277104246</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H23">
-        <v>16.33012411935729</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.59424030345171</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M23">
-        <v>75.12763537380624</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.315985199088782</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D24">
-        <v>5.585168504429992</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E24">
-        <v>14.00410976978474</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F24">
-        <v>31.14052668100163</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G24">
-        <v>41.29436912395298</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H24">
-        <v>16.68017111833773</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.22377828091217</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M24">
-        <v>70.25130013315504</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.640973731688449</v>
+        <v>9.927459770330998</v>
       </c>
       <c r="D25">
-        <v>5.87991615081001</v>
+        <v>6.795136181205534</v>
       </c>
       <c r="E25">
-        <v>13.47261139082614</v>
+        <v>24.67328639113309</v>
       </c>
       <c r="F25">
-        <v>31.66970891368799</v>
+        <v>45.26362267802748</v>
       </c>
       <c r="G25">
-        <v>42.02452624984006</v>
+        <v>72.19949969467707</v>
       </c>
       <c r="H25">
-        <v>17.10680378388997</v>
+        <v>17.74401213960178</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.821388876319199</v>
+        <v>17.78656259756226</v>
       </c>
       <c r="M25">
-        <v>64.5830220080871</v>
+        <v>123.491662579206</v>
       </c>
       <c r="N25">
         <v>0</v>
